--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H2">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I2">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J2">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4299434604905</v>
+        <v>11.7380845</v>
       </c>
       <c r="N2">
-        <v>11.4299434604905</v>
+        <v>23.476169</v>
       </c>
       <c r="O2">
-        <v>0.109563109460159</v>
+        <v>0.1091013321906703</v>
       </c>
       <c r="P2">
-        <v>0.109563109460159</v>
+        <v>0.07797821378927297</v>
       </c>
       <c r="Q2">
-        <v>2271.957341958664</v>
+        <v>2348.921083354541</v>
       </c>
       <c r="R2">
-        <v>2271.957341958664</v>
+        <v>9395.684333418165</v>
       </c>
       <c r="S2">
-        <v>0.02602805885566039</v>
+        <v>0.02459656972265145</v>
       </c>
       <c r="T2">
-        <v>0.02602805885566039</v>
+        <v>0.01417312990552897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H3">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I3">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J3">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.22740378950777</v>
+        <v>2.692633666666667</v>
       </c>
       <c r="N3">
-        <v>2.22740378950777</v>
+        <v>8.077901000000001</v>
       </c>
       <c r="O3">
-        <v>0.02135104920207017</v>
+        <v>0.02502707491454697</v>
       </c>
       <c r="P3">
-        <v>0.02135104920207017</v>
+        <v>0.02683147710968438</v>
       </c>
       <c r="Q3">
-        <v>442.7464064517394</v>
+        <v>538.8259037821357</v>
       </c>
       <c r="R3">
-        <v>442.7464064517394</v>
+        <v>3232.955422692814</v>
       </c>
       <c r="S3">
-        <v>0.00507220329908275</v>
+        <v>0.005642279344617541</v>
       </c>
       <c r="T3">
-        <v>0.00507220329908275</v>
+        <v>0.004876823822362259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H4">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I4">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J4">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.5266332140971</v>
+        <v>29.092768</v>
       </c>
       <c r="N4">
-        <v>27.5266332140971</v>
+        <v>87.27830399999999</v>
       </c>
       <c r="O4">
-        <v>0.2638598815760324</v>
+        <v>0.2704069600039173</v>
       </c>
       <c r="P4">
-        <v>0.2638598815760324</v>
+        <v>0.2899027626047997</v>
       </c>
       <c r="Q4">
-        <v>5471.535064573917</v>
+        <v>5821.786010174175</v>
       </c>
       <c r="R4">
-        <v>5471.535064573917</v>
+        <v>34930.71606104505</v>
       </c>
       <c r="S4">
-        <v>0.06268314728513531</v>
+        <v>0.06096244208643439</v>
       </c>
       <c r="T4">
-        <v>0.06268314728513531</v>
+        <v>0.05269201889483112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H5">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I5">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J5">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.8510525585506</v>
+        <v>43.03803366666667</v>
       </c>
       <c r="N5">
-        <v>42.8510525585506</v>
+        <v>129.114101</v>
       </c>
       <c r="O5">
-        <v>0.410753962010765</v>
+        <v>0.4000232583008115</v>
       </c>
       <c r="P5">
-        <v>0.410753962010765</v>
+        <v>0.4288641375425344</v>
       </c>
       <c r="Q5">
-        <v>8517.606741239097</v>
+        <v>8612.388560139936</v>
       </c>
       <c r="R5">
-        <v>8517.606741239097</v>
+        <v>51674.33136083962</v>
       </c>
       <c r="S5">
-        <v>0.0975796356190452</v>
+        <v>0.09018404968953729</v>
       </c>
       <c r="T5">
-        <v>0.0975796356190452</v>
+        <v>0.07794929939840643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H6">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I6">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J6">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3871550049996</v>
+        <v>11.059523</v>
       </c>
       <c r="N6">
-        <v>10.3871550049996</v>
+        <v>33.178569</v>
       </c>
       <c r="O6">
-        <v>0.09956733423277775</v>
+        <v>0.1027943437188034</v>
       </c>
       <c r="P6">
-        <v>0.09956733423277775</v>
+        <v>0.1102056109199139</v>
       </c>
       <c r="Q6">
-        <v>2064.679773547961</v>
+        <v>2213.133390421961</v>
       </c>
       <c r="R6">
-        <v>2064.679773547961</v>
+        <v>13278.80034253177</v>
       </c>
       <c r="S6">
-        <v>0.02365343999710344</v>
+        <v>0.02317467799526979</v>
       </c>
       <c r="T6">
-        <v>0.02365343999710344</v>
+        <v>0.02003070298721041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H7">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I7">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J7">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.90073158287194</v>
+        <v>9.9677855</v>
       </c>
       <c r="N7">
-        <v>9.90073158287194</v>
+        <v>19.935571</v>
       </c>
       <c r="O7">
-        <v>0.09490466351819567</v>
+        <v>0.09264703087125045</v>
       </c>
       <c r="P7">
-        <v>0.09490466351819567</v>
+        <v>0.06621779803379463</v>
       </c>
       <c r="Q7">
-        <v>1967.992220453435</v>
+        <v>1994.664590743548</v>
       </c>
       <c r="R7">
-        <v>1967.992220453435</v>
+        <v>7978.658362974194</v>
       </c>
       <c r="S7">
-        <v>0.02254576544878445</v>
+        <v>0.02088699659907749</v>
       </c>
       <c r="T7">
-        <v>0.02254576544878445</v>
+        <v>0.01203558542809502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H8">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I8">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J8">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4299434604905</v>
+        <v>11.7380845</v>
       </c>
       <c r="N8">
-        <v>11.4299434604905</v>
+        <v>23.476169</v>
       </c>
       <c r="O8">
-        <v>0.109563109460159</v>
+        <v>0.1091013321906703</v>
       </c>
       <c r="P8">
-        <v>0.109563109460159</v>
+        <v>0.07797821378927297</v>
       </c>
       <c r="Q8">
-        <v>1265.104196295371</v>
+        <v>1379.833090646029</v>
       </c>
       <c r="R8">
-        <v>1265.104196295371</v>
+        <v>8278.998543876178</v>
       </c>
       <c r="S8">
-        <v>0.01449332074665245</v>
+        <v>0.0144488297457944</v>
       </c>
       <c r="T8">
-        <v>0.01449332074665245</v>
+        <v>0.01248864028271946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H9">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I9">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J9">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.22740378950777</v>
+        <v>2.692633666666667</v>
       </c>
       <c r="N9">
-        <v>2.22740378950777</v>
+        <v>8.077901000000001</v>
       </c>
       <c r="O9">
-        <v>0.02135104920207017</v>
+        <v>0.02502707491454697</v>
       </c>
       <c r="P9">
-        <v>0.02135104920207017</v>
+        <v>0.02683147710968438</v>
       </c>
       <c r="Q9">
-        <v>246.5364671917253</v>
+        <v>316.523963876237</v>
       </c>
       <c r="R9">
-        <v>246.5364671917253</v>
+        <v>2848.715674886133</v>
       </c>
       <c r="S9">
-        <v>0.002824377711511435</v>
+        <v>0.003314459477392652</v>
       </c>
       <c r="T9">
-        <v>0.002824377711511435</v>
+        <v>0.004297208791963451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H10">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I10">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J10">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.5266332140971</v>
+        <v>29.092768</v>
       </c>
       <c r="N10">
-        <v>27.5266332140971</v>
+        <v>87.27830399999999</v>
       </c>
       <c r="O10">
-        <v>0.2638598815760324</v>
+        <v>0.2704069600039173</v>
       </c>
       <c r="P10">
-        <v>0.2638598815760324</v>
+        <v>0.2899027626047997</v>
       </c>
       <c r="Q10">
-        <v>3046.739409465404</v>
+        <v>3419.907565402847</v>
       </c>
       <c r="R10">
-        <v>3046.739409465404</v>
+        <v>30779.16808862563</v>
       </c>
       <c r="S10">
-        <v>0.03490413803238929</v>
+        <v>0.03581133290239097</v>
       </c>
       <c r="T10">
-        <v>0.03490413803238929</v>
+        <v>0.04642952362209673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H11">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I11">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J11">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.8510525585506</v>
+        <v>43.03803366666667</v>
       </c>
       <c r="N11">
-        <v>42.8510525585506</v>
+        <v>129.114101</v>
       </c>
       <c r="O11">
-        <v>0.410753962010765</v>
+        <v>0.4000232583008115</v>
       </c>
       <c r="P11">
-        <v>0.410753962010765</v>
+        <v>0.4288641375425344</v>
       </c>
       <c r="Q11">
-        <v>4742.897162604991</v>
+        <v>5059.198799395637</v>
       </c>
       <c r="R11">
-        <v>4742.897162604991</v>
+        <v>45532.78919456073</v>
       </c>
       <c r="S11">
-        <v>0.0543357061397121</v>
+        <v>0.05297706120989625</v>
       </c>
       <c r="T11">
-        <v>0.0543357061397121</v>
+        <v>0.06868495293315145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H12">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I12">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J12">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.3871550049996</v>
+        <v>11.059523</v>
       </c>
       <c r="N12">
-        <v>10.3871550049996</v>
+        <v>33.178569</v>
       </c>
       <c r="O12">
-        <v>0.09956733423277775</v>
+        <v>0.1027943437188034</v>
       </c>
       <c r="P12">
-        <v>0.09956733423277775</v>
+        <v>0.1102056109199139</v>
       </c>
       <c r="Q12">
-        <v>1149.684898251591</v>
+        <v>1300.066957446153</v>
       </c>
       <c r="R12">
-        <v>1149.684898251591</v>
+        <v>11700.60261701538</v>
       </c>
       <c r="S12">
-        <v>0.01317105107763981</v>
+        <v>0.01361356402713725</v>
       </c>
       <c r="T12">
-        <v>0.01317105107763981</v>
+        <v>0.01765003537572025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H13">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I13">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J13">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.90073158287194</v>
+        <v>9.9677855</v>
       </c>
       <c r="N13">
-        <v>9.90073158287194</v>
+        <v>19.935571</v>
       </c>
       <c r="O13">
-        <v>0.09490466351819567</v>
+        <v>0.09264703087125045</v>
       </c>
       <c r="P13">
-        <v>0.09490466351819567</v>
+        <v>0.06621779803379463</v>
       </c>
       <c r="Q13">
-        <v>1095.845934424936</v>
+        <v>1171.731237184541</v>
       </c>
       <c r="R13">
-        <v>1095.845934424936</v>
+        <v>7030.387423107243</v>
       </c>
       <c r="S13">
-        <v>0.01255425969105512</v>
+        <v>0.01226970513222137</v>
       </c>
       <c r="T13">
-        <v>0.01255425969105512</v>
+        <v>0.01060514494718512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H14">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I14">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J14">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.4299434604905</v>
+        <v>11.7380845</v>
       </c>
       <c r="N14">
-        <v>11.4299434604905</v>
+        <v>23.476169</v>
       </c>
       <c r="O14">
-        <v>0.109563109460159</v>
+        <v>0.1091013321906703</v>
       </c>
       <c r="P14">
-        <v>0.109563109460159</v>
+        <v>0.07797821378927297</v>
       </c>
       <c r="Q14">
-        <v>872.1035060071639</v>
+        <v>969.4447874376688</v>
       </c>
       <c r="R14">
-        <v>872.1035060071639</v>
+        <v>5816.668724626013</v>
       </c>
       <c r="S14">
-        <v>0.009991015660097382</v>
+        <v>0.01015147612895453</v>
       </c>
       <c r="T14">
-        <v>0.009991015660097382</v>
+        <v>0.008774283865447832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H15">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I15">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J15">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.22740378950777</v>
+        <v>2.692633666666667</v>
       </c>
       <c r="N15">
-        <v>2.22740378950777</v>
+        <v>8.077901000000001</v>
       </c>
       <c r="O15">
-        <v>0.02135104920207017</v>
+        <v>0.02502707491454697</v>
       </c>
       <c r="P15">
-        <v>0.02135104920207017</v>
+        <v>0.02683147710968438</v>
       </c>
       <c r="Q15">
-        <v>169.9506791821005</v>
+        <v>222.3837860963752</v>
       </c>
       <c r="R15">
-        <v>169.9506791821005</v>
+        <v>2001.454074867377</v>
       </c>
       <c r="S15">
-        <v>0.001946993545441159</v>
+        <v>0.002328676914123934</v>
       </c>
       <c r="T15">
-        <v>0.001946993545441159</v>
+        <v>0.003019138106008051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H16">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I16">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J16">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.5266332140971</v>
+        <v>29.092768</v>
       </c>
       <c r="N16">
-        <v>27.5266332140971</v>
+        <v>87.27830399999999</v>
       </c>
       <c r="O16">
-        <v>0.2638598815760324</v>
+        <v>0.2704069600039173</v>
       </c>
       <c r="P16">
-        <v>0.2638598815760324</v>
+        <v>0.2899027626047997</v>
       </c>
       <c r="Q16">
-        <v>2100.279272383832</v>
+        <v>2402.762758245045</v>
       </c>
       <c r="R16">
-        <v>2100.279272383832</v>
+        <v>21624.8648242054</v>
       </c>
       <c r="S16">
-        <v>0.02406127593390552</v>
+        <v>0.02516036921332541</v>
       </c>
       <c r="T16">
-        <v>0.02406127593390552</v>
+        <v>0.03262051038186218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H17">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I17">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J17">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8510525585506</v>
+        <v>43.03803366666667</v>
       </c>
       <c r="N17">
-        <v>42.8510525585506</v>
+        <v>129.114101</v>
       </c>
       <c r="O17">
-        <v>0.410753962010765</v>
+        <v>0.4000232583008115</v>
       </c>
       <c r="P17">
-        <v>0.410753962010765</v>
+        <v>0.4288641375425344</v>
       </c>
       <c r="Q17">
-        <v>3269.530886271376</v>
+        <v>3554.497959161642</v>
       </c>
       <c r="R17">
-        <v>3269.530886271376</v>
+        <v>31990.48163245478</v>
       </c>
       <c r="S17">
-        <v>0.037456487745895</v>
+        <v>0.03722068719170561</v>
       </c>
       <c r="T17">
-        <v>0.037456487745895</v>
+        <v>0.04825675659457478</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H18">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I18">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J18">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.3871550049996</v>
+        <v>11.059523</v>
       </c>
       <c r="N18">
-        <v>10.3871550049996</v>
+        <v>33.178569</v>
       </c>
       <c r="O18">
-        <v>0.09956733423277775</v>
+        <v>0.1027943437188034</v>
       </c>
       <c r="P18">
-        <v>0.09956733423277775</v>
+        <v>0.1102056109199139</v>
       </c>
       <c r="Q18">
-        <v>792.5388545107703</v>
+        <v>913.4026019234237</v>
       </c>
       <c r="R18">
-        <v>792.5388545107703</v>
+        <v>8220.623417310813</v>
       </c>
       <c r="S18">
-        <v>0.009079504957967343</v>
+        <v>0.009564634138740745</v>
       </c>
       <c r="T18">
-        <v>0.009079504957967343</v>
+        <v>0.01240058301911814</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H19">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I19">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J19">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.90073158287194</v>
+        <v>9.9677855</v>
       </c>
       <c r="N19">
-        <v>9.90073158287194</v>
+        <v>19.935571</v>
       </c>
       <c r="O19">
-        <v>0.09490466351819567</v>
+        <v>0.09264703087125045</v>
       </c>
       <c r="P19">
-        <v>0.09490466351819567</v>
+        <v>0.06621779803379463</v>
       </c>
       <c r="Q19">
-        <v>755.4247976208221</v>
+        <v>823.2363376896611</v>
       </c>
       <c r="R19">
-        <v>755.4247976208221</v>
+        <v>4939.418026137966</v>
       </c>
       <c r="S19">
-        <v>0.008654317900418498</v>
+        <v>0.008620464144877223</v>
       </c>
       <c r="T19">
-        <v>0.008654317900418498</v>
+        <v>0.007450975454035526</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H20">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I20">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J20">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.4299434604905</v>
+        <v>11.7380845</v>
       </c>
       <c r="N20">
-        <v>11.4299434604905</v>
+        <v>23.476169</v>
       </c>
       <c r="O20">
-        <v>0.109563109460159</v>
+        <v>0.1091013321906703</v>
       </c>
       <c r="P20">
-        <v>0.109563109460159</v>
+        <v>0.07797821378927297</v>
       </c>
       <c r="Q20">
-        <v>1164.147525035184</v>
+        <v>1221.966727499971</v>
       </c>
       <c r="R20">
-        <v>1164.147525035184</v>
+        <v>7331.800364999828</v>
       </c>
       <c r="S20">
-        <v>0.01333673821189131</v>
+        <v>0.01279574270276864</v>
       </c>
       <c r="T20">
-        <v>0.01333673821189131</v>
+        <v>0.01105981803208825</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H21">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I21">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J21">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.22740378950777</v>
+        <v>2.692633666666667</v>
       </c>
       <c r="N21">
-        <v>2.22740378950777</v>
+        <v>8.077901000000001</v>
       </c>
       <c r="O21">
-        <v>0.02135104920207017</v>
+        <v>0.02502707491454697</v>
       </c>
       <c r="P21">
-        <v>0.02135104920207017</v>
+        <v>0.02683147710968438</v>
       </c>
       <c r="Q21">
-        <v>226.8625927829553</v>
+        <v>280.3105353358903</v>
       </c>
       <c r="R21">
-        <v>226.8625927829553</v>
+        <v>2522.794818023012</v>
       </c>
       <c r="S21">
-        <v>0.002598989341944215</v>
+        <v>0.002935252987101871</v>
       </c>
       <c r="T21">
-        <v>0.002598989341944215</v>
+        <v>0.003805566195286109</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H22">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I22">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J22">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.5266332140971</v>
+        <v>29.092768</v>
       </c>
       <c r="N22">
-        <v>27.5266332140971</v>
+        <v>87.27830399999999</v>
       </c>
       <c r="O22">
-        <v>0.2638598815760324</v>
+        <v>0.2704069600039173</v>
       </c>
       <c r="P22">
-        <v>0.2638598815760324</v>
+        <v>0.2899027626047997</v>
       </c>
       <c r="Q22">
-        <v>2803.60633799384</v>
+        <v>3028.636785403605</v>
       </c>
       <c r="R22">
-        <v>2803.60633799384</v>
+        <v>27257.73106863245</v>
       </c>
       <c r="S22">
-        <v>0.03211875039453704</v>
+        <v>0.03171416714876613</v>
       </c>
       <c r="T22">
-        <v>0.03211875039453704</v>
+        <v>0.04111753329043082</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H23">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I23">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J23">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.8510525585506</v>
+        <v>43.03803366666667</v>
       </c>
       <c r="N23">
-        <v>42.8510525585506</v>
+        <v>129.114101</v>
       </c>
       <c r="O23">
-        <v>0.410753962010765</v>
+        <v>0.4000232583008115</v>
       </c>
       <c r="P23">
-        <v>0.410753962010765</v>
+        <v>0.4288641375425344</v>
       </c>
       <c r="Q23">
-        <v>4364.40888387811</v>
+        <v>4480.377114144158</v>
       </c>
       <c r="R23">
-        <v>4364.40888387811</v>
+        <v>40323.39402729741</v>
       </c>
       <c r="S23">
-        <v>0.04999965853311929</v>
+        <v>0.04691596871974819</v>
       </c>
       <c r="T23">
-        <v>0.04999965853311929</v>
+        <v>0.06082672443006623</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H24">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I24">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J24">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.3871550049996</v>
+        <v>11.059523</v>
       </c>
       <c r="N24">
-        <v>10.3871550049996</v>
+        <v>33.178569</v>
       </c>
       <c r="O24">
-        <v>0.09956733423277775</v>
+        <v>0.1027943437188034</v>
       </c>
       <c r="P24">
-        <v>0.09956733423277775</v>
+        <v>0.1102056109199139</v>
       </c>
       <c r="Q24">
-        <v>1057.938810723407</v>
+        <v>1151.326617900959</v>
       </c>
       <c r="R24">
-        <v>1057.938810723407</v>
+        <v>10361.93956110863</v>
       </c>
       <c r="S24">
-        <v>0.01211998708015231</v>
+        <v>0.01205603952871117</v>
       </c>
       <c r="T24">
-        <v>0.01211998708015231</v>
+        <v>0.01563069918712394</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H25">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I25">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J25">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.90073158287194</v>
+        <v>9.9677855</v>
       </c>
       <c r="N25">
-        <v>9.90073158287194</v>
+        <v>19.935571</v>
       </c>
       <c r="O25">
-        <v>0.09490466351819567</v>
+        <v>0.09264703087125045</v>
       </c>
       <c r="P25">
-        <v>0.09490466351819567</v>
+        <v>0.06621779803379463</v>
       </c>
       <c r="Q25">
-        <v>1008.396253934175</v>
+        <v>1037.673755701509</v>
       </c>
       <c r="R25">
-        <v>1008.396253934175</v>
+        <v>6226.042534209052</v>
       </c>
       <c r="S25">
-        <v>0.01155241630751697</v>
+        <v>0.01086593119809182</v>
       </c>
       <c r="T25">
-        <v>0.01155241630751697</v>
+        <v>0.009391812932756429</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H26">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I26">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J26">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.4299434604905</v>
+        <v>11.7380845</v>
       </c>
       <c r="N26">
-        <v>11.4299434604905</v>
+        <v>23.476169</v>
       </c>
       <c r="O26">
-        <v>0.109563109460159</v>
+        <v>0.1091013321906703</v>
       </c>
       <c r="P26">
-        <v>0.109563109460159</v>
+        <v>0.07797821378927297</v>
       </c>
       <c r="Q26">
-        <v>1348.564665367735</v>
+        <v>1437.60594316797</v>
       </c>
       <c r="R26">
-        <v>1348.564665367735</v>
+        <v>8625.635659007818</v>
       </c>
       <c r="S26">
-        <v>0.01544946281896079</v>
+        <v>0.0150537942996069</v>
       </c>
       <c r="T26">
-        <v>0.01544946281896079</v>
+        <v>0.01301153278192406</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H27">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I27">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J27">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.22740378950777</v>
+        <v>2.692633666666667</v>
       </c>
       <c r="N27">
-        <v>2.22740378950777</v>
+        <v>8.077901000000001</v>
       </c>
       <c r="O27">
-        <v>0.02135104920207017</v>
+        <v>0.02502707491454697</v>
       </c>
       <c r="P27">
-        <v>0.02135104920207017</v>
+        <v>0.02683147710968438</v>
       </c>
       <c r="Q27">
-        <v>262.8007790606749</v>
+        <v>329.7766481383025</v>
       </c>
       <c r="R27">
-        <v>262.8007790606749</v>
+        <v>2967.989833244722</v>
       </c>
       <c r="S27">
-        <v>0.003010705358934112</v>
+        <v>0.003453234072577712</v>
       </c>
       <c r="T27">
-        <v>0.003010705358934112</v>
+        <v>0.004477130560383901</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H28">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I28">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J28">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>27.5266332140971</v>
+        <v>29.092768</v>
       </c>
       <c r="N28">
-        <v>27.5266332140971</v>
+        <v>87.27830399999999</v>
       </c>
       <c r="O28">
-        <v>0.2638598815760324</v>
+        <v>0.2704069600039173</v>
       </c>
       <c r="P28">
-        <v>0.2638598815760324</v>
+        <v>0.2899027626047997</v>
       </c>
       <c r="Q28">
-        <v>3247.736529702503</v>
+        <v>3563.097214030698</v>
       </c>
       <c r="R28">
-        <v>3247.736529702503</v>
+        <v>32067.87492627629</v>
       </c>
       <c r="S28">
-        <v>0.03720680665152776</v>
+        <v>0.03731073371282905</v>
       </c>
       <c r="T28">
-        <v>0.03720680665152776</v>
+        <v>0.04837350223738524</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H29">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I29">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J29">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>42.8510525585506</v>
+        <v>43.03803366666667</v>
       </c>
       <c r="N29">
-        <v>42.8510525585506</v>
+        <v>129.114101</v>
       </c>
       <c r="O29">
-        <v>0.410753962010765</v>
+        <v>0.4000232583008115</v>
       </c>
       <c r="P29">
-        <v>0.410753962010765</v>
+        <v>0.4288641375425344</v>
       </c>
       <c r="Q29">
-        <v>5055.79188156344</v>
+        <v>5271.024670291236</v>
       </c>
       <c r="R29">
-        <v>5055.79188156344</v>
+        <v>47439.22203262112</v>
       </c>
       <c r="S29">
-        <v>0.05792029904129133</v>
+        <v>0.05519518162248337</v>
       </c>
       <c r="T29">
-        <v>0.05792029904129133</v>
+        <v>0.07156075413199463</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H30">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I30">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J30">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.3871550049996</v>
+        <v>11.059523</v>
       </c>
       <c r="N30">
-        <v>10.3871550049996</v>
+        <v>33.178569</v>
       </c>
       <c r="O30">
-        <v>0.09956733423277775</v>
+        <v>0.1027943437188034</v>
       </c>
       <c r="P30">
-        <v>0.09956733423277775</v>
+        <v>0.1102056109199139</v>
       </c>
       <c r="Q30">
-        <v>1225.531015254817</v>
+        <v>1354.500045846735</v>
       </c>
       <c r="R30">
-        <v>1225.531015254817</v>
+        <v>12190.50041262062</v>
       </c>
       <c r="S30">
-        <v>0.01403996140481671</v>
+        <v>0.01418355646475125</v>
       </c>
       <c r="T30">
-        <v>0.01403996140481671</v>
+        <v>0.01838903264842017</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H31">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I31">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J31">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.90073158287194</v>
+        <v>9.9677855</v>
       </c>
       <c r="N31">
-        <v>9.90073158287194</v>
+        <v>19.935571</v>
       </c>
       <c r="O31">
-        <v>0.09490466351819567</v>
+        <v>0.09264703087125045</v>
       </c>
       <c r="P31">
-        <v>0.09490466351819567</v>
+        <v>0.06621779803379463</v>
       </c>
       <c r="Q31">
-        <v>1168.140229223714</v>
+        <v>1220.79097956941</v>
       </c>
       <c r="R31">
-        <v>1168.140229223714</v>
+        <v>7324.745877416462</v>
       </c>
       <c r="S31">
-        <v>0.01338247953708834</v>
+        <v>0.01278343093710088</v>
       </c>
       <c r="T31">
-        <v>0.01338247953708834</v>
+        <v>0.01104917653271599</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H32">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I32">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J32">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.4299434604905</v>
+        <v>11.7380845</v>
       </c>
       <c r="N32">
-        <v>11.4299434604905</v>
+        <v>23.476169</v>
       </c>
       <c r="O32">
-        <v>0.109563109460159</v>
+        <v>0.1091013321906703</v>
       </c>
       <c r="P32">
-        <v>0.109563109460159</v>
+        <v>0.07797821378927297</v>
       </c>
       <c r="Q32">
-        <v>2641.752244054969</v>
+        <v>3061.177932585702</v>
       </c>
       <c r="R32">
-        <v>2641.752244054969</v>
+        <v>12244.71173034281</v>
       </c>
       <c r="S32">
-        <v>0.0302645131668967</v>
+        <v>0.03205491959089434</v>
       </c>
       <c r="T32">
-        <v>0.0302645131668967</v>
+        <v>0.01847080892156439</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H33">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I33">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J33">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.22740378950777</v>
+        <v>2.692633666666667</v>
       </c>
       <c r="N33">
-        <v>2.22740378950777</v>
+        <v>8.077901000000001</v>
       </c>
       <c r="O33">
-        <v>0.02135104920207017</v>
+        <v>0.02502707491454697</v>
       </c>
       <c r="P33">
-        <v>0.02135104920207017</v>
+        <v>0.02683147710968438</v>
       </c>
       <c r="Q33">
-        <v>514.8099795671411</v>
+        <v>702.2125936252484</v>
       </c>
       <c r="R33">
-        <v>514.8099795671411</v>
+        <v>4213.275561751489</v>
       </c>
       <c r="S33">
-        <v>0.005897779945156497</v>
+        <v>0.007353172118733258</v>
       </c>
       <c r="T33">
-        <v>0.005897779945156497</v>
+        <v>0.006355609633680603</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H34">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I34">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J34">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>27.5266332140971</v>
+        <v>29.092768</v>
       </c>
       <c r="N34">
-        <v>27.5266332140971</v>
+        <v>87.27830399999999</v>
       </c>
       <c r="O34">
-        <v>0.2638598815760324</v>
+        <v>0.2704069600039173</v>
       </c>
       <c r="P34">
-        <v>0.2638598815760324</v>
+        <v>0.2899027626047997</v>
       </c>
       <c r="Q34">
-        <v>6362.108904211363</v>
+        <v>7587.110094448158</v>
       </c>
       <c r="R34">
-        <v>6362.108904211363</v>
+        <v>45522.66056668895</v>
       </c>
       <c r="S34">
-        <v>0.07288576327853745</v>
+        <v>0.07944791494017138</v>
       </c>
       <c r="T34">
-        <v>0.07288576327853745</v>
+        <v>0.0686696741781936</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H35">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I35">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J35">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>42.8510525585506</v>
+        <v>43.03803366666667</v>
       </c>
       <c r="N35">
-        <v>42.8510525585506</v>
+        <v>129.114101</v>
       </c>
       <c r="O35">
-        <v>0.410753962010765</v>
+        <v>0.4000232583008115</v>
       </c>
       <c r="P35">
-        <v>0.410753962010765</v>
+        <v>0.4288641375425344</v>
       </c>
       <c r="Q35">
-        <v>9903.974122704063</v>
+        <v>11223.89934424825</v>
       </c>
       <c r="R35">
-        <v>9903.974122704063</v>
+        <v>67343.39606548949</v>
       </c>
       <c r="S35">
-        <v>0.1134621749317021</v>
+        <v>0.1175303098674408</v>
       </c>
       <c r="T35">
-        <v>0.1134621749317021</v>
+        <v>0.1015856500543409</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H36">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I36">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J36">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.3871550049996</v>
+        <v>11.059523</v>
       </c>
       <c r="N36">
-        <v>10.3871550049996</v>
+        <v>33.178569</v>
       </c>
       <c r="O36">
-        <v>0.09956733423277775</v>
+        <v>0.1027943437188034</v>
       </c>
       <c r="P36">
-        <v>0.09956733423277775</v>
+        <v>0.1102056109199139</v>
       </c>
       <c r="Q36">
-        <v>2400.737163631335</v>
+        <v>2884.215712753135</v>
       </c>
       <c r="R36">
-        <v>2400.737163631335</v>
+        <v>17305.29427651881</v>
       </c>
       <c r="S36">
-        <v>0.02750338971509812</v>
+        <v>0.03020187156419317</v>
       </c>
       <c r="T36">
-        <v>0.02750338971509812</v>
+        <v>0.02610455770232101</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H37">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I37">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J37">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.90073158287194</v>
+        <v>9.9677855</v>
       </c>
       <c r="N37">
-        <v>9.90073158287194</v>
+        <v>19.935571</v>
       </c>
       <c r="O37">
-        <v>0.09490466351819567</v>
+        <v>0.09264703087125045</v>
       </c>
       <c r="P37">
-        <v>0.09490466351819567</v>
+        <v>0.06621779803379463</v>
       </c>
       <c r="Q37">
-        <v>2288.312270944115</v>
+        <v>2599.501222652447</v>
       </c>
       <c r="R37">
-        <v>2288.312270944115</v>
+        <v>10398.00489060979</v>
       </c>
       <c r="S37">
-        <v>0.02621542463333228</v>
+        <v>0.02722050285988166</v>
       </c>
       <c r="T37">
-        <v>0.02621542463333228</v>
+        <v>0.01568510273900654</v>
       </c>
     </row>
   </sheetData>
